--- a/brand/kshipra_commerce_reward_model.xlsx
+++ b/brand/kshipra_commerce_reward_model.xlsx
@@ -13,6 +13,8 @@
     <sheet name="Scenarios" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Investor Metrics" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Sensitivity Analysis" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Visual Comparisons" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="References &amp; Data Sources" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21,15 +23,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="$0.00"/>
     <numFmt numFmtId="165" formatCode="$#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="$#,##0"/>
     <numFmt numFmtId="168" formatCode="0.0&quot;x&quot;"/>
     <numFmt numFmtId="169" formatCode="0.0&quot; months&quot;"/>
+    <numFmt numFmtId="170" formatCode="0.0&quot; mo&quot;"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="16">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -55,16 +58,29 @@
     </font>
     <font>
       <b val="1"/>
+      <color rgb="00FF6600"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="004472C4"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="0000AA00"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="0000AA00"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <b val="1"/>
       <color rgb="00FFFFFF"/>
       <sz val="14"/>
     </font>
     <font>
       <b val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="0000AA00"/>
       <sz val="12"/>
     </font>
     <font>
@@ -74,6 +90,18 @@
     <font>
       <b val="1"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <color rgb="00666666"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <color rgb="000563C1"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <sz val="9"/>
     </font>
   </fonts>
   <fills count="6">
@@ -120,22 +148,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -146,11 +174,24 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -225,6 +266,361 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Cost per Engagement: Kshipra Saves 80%</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Visual Comparisons'!C4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Visual Comparisons'!$A$5:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Visual Comparisons'!$C$5:$C$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Platform</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Cost ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="11"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>User Gets Bags for FREE (or Even EARNS Money!)</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Visual Comparisons'!B20</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Visual Comparisons'!$A$21:$A$24</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Visual Comparisons'!$B$21:$B$24</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Components</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Amount ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Monthly Store Traffic Value Created</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <pieChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Visual Comparisons'!B44</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Visual Comparisons'!$A$45:$A$47</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Visual Comparisons'!$B$45:$B$47</f>
+            </numRef>
+          </val>
+        </ser>
+        <firstSliceAng val="0"/>
+      </pieChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>43</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="4320000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -525,9 +921,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -551,8 +947,13 @@
         </is>
       </c>
       <c r="B4" s="3">
-        <f>Calculations!B8</f>
-        <v/>
+        <f>Calculations!B9</f>
+        <v/>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Total income (bags + ads)</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -562,8 +963,13 @@
         </is>
       </c>
       <c r="B5" s="4">
-        <f>Calculations!B13</f>
-        <v/>
+        <f>Calculations!B14</f>
+        <v/>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Final profit after all costs</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -573,8 +979,13 @@
         </is>
       </c>
       <c r="B6" s="5">
-        <f>Calculations!B13/Calculations!B8</f>
-        <v/>
+        <f>Calculations!B14/Calculations!B9</f>
+        <v/>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Profitability ratio</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -584,8 +995,13 @@
         </is>
       </c>
       <c r="B8" s="6">
-        <f>Calculations!B27</f>
-        <v/>
+        <f>Calculations!B28</f>
+        <v/>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Negative = FREE bags!</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -611,7 +1027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,10 +1035,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="32" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="55" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -653,6 +1069,11 @@
           <t>$</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>What users pay upfront for each bag</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -668,6 +1089,11 @@
           <t>bags</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Monthly volume - scale this to model growth</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -683,11 +1109,16 @@
         </is>
       </c>
       <c r="B8" s="9" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>$</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Revenue per verified ad view (100% engagement)</t>
         </is>
       </c>
     </row>
@@ -698,11 +1129,16 @@
         </is>
       </c>
       <c r="B9" s="9" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>$</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Instant cash reward to user (goes to wallet)</t>
         </is>
       </c>
     </row>
@@ -713,11 +1149,16 @@
         </is>
       </c>
       <c r="B10" s="9" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>$</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Store credit reward (redeemable at partner stores)</t>
         </is>
       </c>
     </row>
@@ -728,293 +1169,411 @@
         </is>
       </c>
       <c r="B11" s="9" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>$</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Our profit per ad = CPV - Cash - Rewards</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>USER BEHAVIOR</t>
+          <t>USER ENGAGEMENT</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Active User Rate</t>
+        </is>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>% of buyers who actually watch ads to earn rewards</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>USER BEHAVIOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Avg Ads to Recover Bag Cost</t>
         </is>
       </c>
-      <c r="B14" s="11" t="n">
+      <c r="B17" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>ads</t>
         </is>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Avg Monthly Ad Views per User</t>
-        </is>
-      </c>
-      <c r="B15" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>views</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>TIER CASH CREDIT LIMITS</t>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>How many ads needed to make bag FREE</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bronze - Bag Values/Month</t>
+          <t>Avg Monthly Ad Views per User</t>
         </is>
       </c>
       <c r="B18" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Silver - Bag Values/Month</t>
-        </is>
-      </c>
-      <c r="B19" s="12" t="n">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Engagement level: ads watched per active user/month</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Gold - Bag Values/Month</t>
-        </is>
-      </c>
-      <c r="B20" s="12" t="n">
-        <v>7</v>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>TIER CASH CREDIT LIMITS</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Platinum - Daily Cap ($)</t>
-        </is>
-      </c>
-      <c r="B21" s="9" t="n">
+          <t>Bronze - Bag Values/Month</t>
+        </is>
+      </c>
+      <c r="B21" s="11" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Low-engagement: 1 bag purchase/month</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Silver - Bag Values/Month</t>
+        </is>
+      </c>
+      <c r="B22" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Medium-engagement: 3 bags/month</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>USER DISTRIBUTION BY TIER (%)</t>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Gold - Bag Values/Month</t>
+        </is>
+      </c>
+      <c r="B23" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>High-engagement: 7 bags/month</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Bronze %</t>
-        </is>
-      </c>
-      <c r="B24" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Silver %</t>
-        </is>
-      </c>
-      <c r="B25" s="12" t="n">
-        <v>25</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>%</t>
+          <t>Platinum - Daily Cap ($)</t>
+        </is>
+      </c>
+      <c r="B24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Super users: $1/day earning limit</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Gold %</t>
-        </is>
-      </c>
-      <c r="B26" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>%</t>
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>USER DISTRIBUTION BY TIER (%)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Platinum %</t>
-        </is>
-      </c>
-      <c r="B27" s="12" t="n">
-        <v>3</v>
+          <t>Bronze %</t>
+        </is>
+      </c>
+      <c r="B27" s="11" t="n">
+        <v>60</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Most users are casual shoppers</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Silver %</t>
+        </is>
+      </c>
+      <c r="B28" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Regular shoppers</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>STORE &amp; REDEMPTION METRICS</t>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Gold %</t>
+        </is>
+      </c>
+      <c r="B29" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Frequent shoppers</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Reward Redemption Rate</t>
-        </is>
-      </c>
-      <c r="B30" s="12" t="n">
-        <v>75</v>
+          <t>Platinum %</t>
+        </is>
+      </c>
+      <c r="B30" s="11" t="n">
+        <v>3</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Repeat Visit Increase</t>
-        </is>
-      </c>
-      <c r="B31" s="12" t="n">
-        <v>15</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>%</t>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Power users (heavy engagement)</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Basket Size Uplift</t>
-        </is>
-      </c>
-      <c r="B32" s="12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>%</t>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>STORE &amp; REDEMPTION METRICS</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Average Basket Value</t>
-        </is>
-      </c>
-      <c r="B33" s="9" t="n">
-        <v>25</v>
+          <t>Reward Redemption Rate</t>
+        </is>
+      </c>
+      <c r="B33" s="11" t="n">
+        <v>75</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$</t>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>% of users who redeem rewards at stores</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Repeat Visit Increase</t>
+        </is>
+      </c>
+      <c r="B34" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Users visit more often to use rewards</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>BRAND BENCHMARKS</t>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Basket Size Uplift</t>
+        </is>
+      </c>
+      <c r="B35" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Users buy more when they have rewards</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>Average Basket Value</t>
+        </is>
+      </c>
+      <c r="B36" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Typical purchase amount per store visit</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>BRAND BENCHMARKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>Meta CPM</t>
         </is>
       </c>
-      <c r="B36" s="9" t="n">
+      <c r="B39" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Facebook/Instagram ad cost per 1000 impressions</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>TikTok CPM</t>
         </is>
       </c>
-      <c r="B37" s="9" t="n">
+      <c r="B40" s="9" t="n">
         <v>8.5</v>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>TikTok ad cost per 1000 impressions</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>Industry Avg CTR</t>
         </is>
       </c>
-      <c r="B38" s="12" t="n">
+      <c r="B41" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Click-through rate on social media ads (only 1% engage!)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A35:D35"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A38:D38"/>
     <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1027,7 +1586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,9 +1594,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="35" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1064,329 +1623,601 @@
         <f>Assumptions!B5</f>
         <v/>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Number of bags purchased this month</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bag Revenue</t>
-        </is>
-      </c>
-      <c r="B5" s="15">
-        <f>Assumptions!B5*Assumptions!B4</f>
-        <v/>
+          <t>Active Users (Watching Ads)</t>
+        </is>
+      </c>
+      <c r="B5" s="14">
+        <f>Assumptions!B5*Assumptions!B14/100</f>
+        <v/>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Users who actually engage with ads</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Total Ad Views</t>
-        </is>
-      </c>
-      <c r="B6" s="14">
-        <f>Assumptions!B5*Assumptions!B15</f>
-        <v/>
+          <t>Bag Revenue</t>
+        </is>
+      </c>
+      <c r="B6" s="15">
+        <f>Assumptions!B5*Assumptions!B4</f>
+        <v/>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Income from selling bags to users</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ad Revenue (Brand Spend)</t>
-        </is>
-      </c>
-      <c r="B7" s="15">
-        <f>B6*Assumptions!B8</f>
-        <v/>
+          <t>Total Ad Views</t>
+        </is>
+      </c>
+      <c r="B7" s="14">
+        <f>B5*Assumptions!B18</f>
+        <v/>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Total verified ad impressions delivered (only active users)</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Ad Revenue (Brand Spend)</t>
+        </is>
+      </c>
+      <c r="B8" s="15">
+        <f>B7*Assumptions!B8</f>
+        <v/>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>What brands pay for all ad views</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Total Revenue</t>
         </is>
       </c>
-      <c r="B8" s="16">
-        <f>B5+B7</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Total Cash Credits Paid</t>
-        </is>
-      </c>
-      <c r="B10" s="15">
-        <f>B6*Assumptions!B9</f>
-        <v/>
+      <c r="B9" s="16">
+        <f>B6+B8</f>
+        <v/>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Combined income from bags + ads</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Total Reward Points Issued</t>
+          <t>Total Cash Credits Paid</t>
         </is>
       </c>
       <c r="B11" s="15">
-        <f>B6*Assumptions!B10</f>
-        <v/>
+        <f>B7*Assumptions!B9</f>
+        <v/>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Instant cash rewards given to users</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Gross Margin (from Ads)</t>
+          <t>Total Reward Points Issued</t>
         </is>
       </c>
       <c r="B12" s="15">
-        <f>B6*Assumptions!B11</f>
-        <v/>
+        <f>B7*Assumptions!B10</f>
+        <v/>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Store credit rewards issued to users</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Total Margin</t>
-        </is>
-      </c>
-      <c r="B13" s="17">
-        <f>B5+B12</f>
-        <v/>
+          <t>Gross Margin (from Ads)</t>
+        </is>
+      </c>
+      <c r="B13" s="15">
+        <f>B7*Assumptions!B11</f>
+        <v/>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Profit after paying out all rewards</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Total Margin</t>
+        </is>
+      </c>
+      <c r="B14" s="17">
+        <f>B6+B13</f>
+        <v/>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Final profit: bag sales + ad margins</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Margin %</t>
         </is>
       </c>
-      <c r="B14" s="18">
-        <f>B13/B8</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="B15" s="18">
+        <f>B14/B9</f>
+        <v/>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Profit as percentage of revenue</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>PER USER METRICS</t>
         </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Monthly Ad Views</t>
-        </is>
-      </c>
-      <c r="B17">
-        <f>Assumptions!B15</f>
-        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Brand Spend per User</t>
-        </is>
-      </c>
-      <c r="B18" s="19">
-        <f>Assumptions!B15*Assumptions!B8</f>
-        <v/>
+          <t>Monthly Ad Views</t>
+        </is>
+      </c>
+      <c r="B18">
+        <f>Assumptions!B18</f>
+        <v/>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>How many ads each user watches per month</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>User Rewards per Month</t>
+          <t>Brand Spend per User</t>
         </is>
       </c>
       <c r="B19" s="19">
-        <f>Assumptions!B15*(Assumptions!B9+Assumptions!B10)</f>
-        <v/>
+        <f>Assumptions!B18*Assumptions!B8</f>
+        <v/>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Total brands pay for this user's ad views</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>User Rewards per Month</t>
+        </is>
+      </c>
+      <c r="B20" s="19">
+        <f>Assumptions!B18*(Assumptions!B9+Assumptions!B10)</f>
+        <v/>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Cash + reward points user earns monthly</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>Kshipra Margin per User</t>
         </is>
       </c>
-      <c r="B20" s="19">
-        <f>Assumptions!B15*Assumptions!B11</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="B21" s="19">
+        <f>Assumptions!B18*Assumptions!B11</f>
+        <v/>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Our profit per active user per month</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>PER BAG METRICS</t>
         </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Bag Retail Revenue</t>
-        </is>
-      </c>
-      <c r="B23" s="19">
-        <f>Assumptions!B4</f>
-        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ad Views per Bag</t>
-        </is>
-      </c>
-      <c r="B24">
-        <f>Assumptions!B14</f>
-        <v/>
+          <t>Bag Retail Revenue</t>
+        </is>
+      </c>
+      <c r="B24" s="19">
+        <f>Assumptions!B4</f>
+        <v/>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>What users pay for each bag</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Brand Revenue per Bag</t>
-        </is>
-      </c>
-      <c r="B25" s="19">
-        <f>Assumptions!B14*Assumptions!B8</f>
-        <v/>
+          <t>Ad Views per Bag</t>
+        </is>
+      </c>
+      <c r="B25">
+        <f>Assumptions!B17</f>
+        <v/>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ads needed to watch to recover bag cost</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>User Earnings per Bag</t>
+          <t>Brand Revenue per Bag</t>
         </is>
       </c>
       <c r="B26" s="19">
-        <f>Assumptions!B14*(Assumptions!B9+Assumptions!B10)</f>
-        <v/>
+        <f>Assumptions!B17*Assumptions!B8</f>
+        <v/>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>What brands pay for ads on one bag</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>User Earnings per Bag</t>
+        </is>
+      </c>
+      <c r="B27" s="19">
+        <f>Assumptions!B17*(Assumptions!B9+Assumptions!B10)</f>
+        <v/>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Rewards user gets from watching ads</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>User Net Cost</t>
         </is>
       </c>
-      <c r="B27" s="20">
-        <f>Assumptions!B4-B26</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="B28" s="20">
+        <f>Assumptions!B4-B27</f>
+        <v/>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Final cost after earning rewards (FREE if negative!)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>STORE VALUE METRICS</t>
         </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Total Rewards Generated</t>
-        </is>
-      </c>
-      <c r="B30" s="15">
-        <f>B6*(Assumptions!B9+Assumptions!B10)</f>
-        <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Reward Redemption Value</t>
+          <t>Total Rewards Generated</t>
         </is>
       </c>
       <c r="B31" s="15">
-        <f>B30*Assumptions!B30/100</f>
-        <v/>
+        <f>B7*(Assumptions!B9+Assumptions!B10)</f>
+        <v/>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>All rewards earned by users this month</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Estimated Transactions</t>
-        </is>
-      </c>
-      <c r="B32" s="14">
-        <f>Assumptions!B5*Assumptions!B30/100</f>
-        <v/>
+          <t>Reward Redemption Value</t>
+        </is>
+      </c>
+      <c r="B32" s="15">
+        <f>B31*Assumptions!B33/100</f>
+        <v/>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>How much will actually be redeemed at stores</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Baseline Basket Value</t>
-        </is>
-      </c>
-      <c r="B33" s="15">
-        <f>B32*Assumptions!B33</f>
-        <v/>
+          <t>Estimated Transactions</t>
+        </is>
+      </c>
+      <c r="B33" s="14">
+        <f>Assumptions!B5*Assumptions!B33/100</f>
+        <v/>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Number of store visits to redeem rewards</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>Baseline Basket Value</t>
+        </is>
+      </c>
+      <c r="B34" s="15">
+        <f>B33*Assumptions!B36</f>
+        <v/>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Total sales if customers buy average basket</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>Incremental Basket Value</t>
         </is>
       </c>
-      <c r="B34" s="15">
-        <f>B33*Assumptions!B32/100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>BRAND ROI METRICS</t>
+      <c r="B35" s="15">
+        <f>B34*Assumptions!B35/100</f>
+        <v/>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Extra sales from customers buying more</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>BagBuddy CPM</t>
-        </is>
-      </c>
-      <c r="B37" s="19">
-        <f>Assumptions!B8*1000</f>
-        <v/>
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>BRAND ROI COMPARISON</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Cost per Basket Influenced</t>
-        </is>
-      </c>
-      <c r="B38" s="19">
-        <f>B7/B32</f>
-        <v/>
+      <c r="A38" s="21" t="inlineStr">
+        <is>
+          <t>KSHIPRA APPROACH</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BagBuddy vs Meta Savings</t>
-        </is>
-      </c>
-      <c r="B39" s="21">
-        <f>(Assumptions!B36-Assumptions!B8*1000)/Assumptions!B36</f>
-        <v/>
+          <t>BagBuddy CPM</t>
+        </is>
+      </c>
+      <c r="B39" s="19">
+        <f>Assumptions!B8*1000</f>
+        <v/>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Cost per 1000 verified ad views (100% engagement)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>BagBuddy Cost per Engagement</t>
+        </is>
+      </c>
+      <c r="B40" s="19">
+        <f>Assumptions!B8</f>
+        <v/>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Every view is 100% verified engagement</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Cost per Basket Influenced</t>
+        </is>
+      </c>
+      <c r="B41" s="19">
+        <f>B8/B33</f>
+        <v/>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Brand spend per store transaction driven</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="22" t="inlineStr">
+        <is>
+          <t>TRADITIONAL SOCIAL MEDIA (Meta/Facebook)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Meta CPM</t>
+        </is>
+      </c>
+      <c r="B44" s="19">
+        <f>Assumptions!B39</f>
+        <v/>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Cost per 1000 impressions (not engagements!)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Meta CTR</t>
+        </is>
+      </c>
+      <c r="B45" s="23">
+        <f>Assumptions!B41</f>
+        <v/>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Only 1% of viewers click/engage</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Meta Cost per Engagement</t>
+        </is>
+      </c>
+      <c r="B46" s="19">
+        <f>(Assumptions!B39/1000)/(Assumptions!B41/100)</f>
+        <v/>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>True cost accounting for low engagement</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="24" t="inlineStr">
+        <is>
+          <t>KSHIPRA VS META SAVINGS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Cost Savings per Engagement</t>
+        </is>
+      </c>
+      <c r="B49" s="25">
+        <f>(B46-B40)/B46</f>
+        <v/>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Brands save this much vs Meta ads</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Engagement Quality</t>
+        </is>
+      </c>
+      <c r="B50" s="26" t="inlineStr">
+        <is>
+          <t>100% Verified</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>vs Meta's 1% CTR (99% wasted impressions)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CPM Difference</t>
+        </is>
+      </c>
+      <c r="B51" s="19">
+        <f>B39-B44</f>
+        <v/>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Higher CPM BUT 100% engagement vs 1%</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A36:C36"/>
+  <mergeCells count="9">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A17:C17"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A38:C38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1398,7 +2229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1406,11 +2237,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="28" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="45" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1453,18 +2285,23 @@
           <t>Monthly Revenue</t>
         </is>
       </c>
-      <c r="B4" s="22" t="n">
-        <v>19000</v>
-      </c>
-      <c r="C4" s="22" t="n">
-        <v>34000</v>
-      </c>
-      <c r="D4" s="22" t="n">
-        <v>54000</v>
+      <c r="B4" s="27" t="n">
+        <v>11200</v>
+      </c>
+      <c r="C4" s="27" t="n">
+        <v>18400</v>
+      </c>
+      <c r="D4" s="27" t="n">
+        <v>28000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>$</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Bags + ad revenue combined</t>
         </is>
       </c>
     </row>
@@ -1474,18 +2311,23 @@
           <t>Monthly Margin</t>
         </is>
       </c>
-      <c r="B5" s="22" t="n">
-        <v>10000</v>
-      </c>
-      <c r="C5" s="22" t="n">
-        <v>16000</v>
-      </c>
-      <c r="D5" s="22" t="n">
-        <v>24000</v>
+      <c r="B5" s="27" t="n">
+        <v>6880</v>
+      </c>
+      <c r="C5" s="27" t="n">
+        <v>9760</v>
+      </c>
+      <c r="D5" s="27" t="n">
+        <v>13600</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>$</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Final profit after paying users</t>
         </is>
       </c>
     </row>
@@ -1495,18 +2337,23 @@
           <t>Margin %</t>
         </is>
       </c>
-      <c r="B6" s="21" t="n">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="C6" s="21" t="n">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="D6" s="21" t="n">
-        <v>0.4444444444444444</v>
+      <c r="B6" s="23" t="n">
+        <v>0.6142857142857143</v>
+      </c>
+      <c r="C6" s="23" t="n">
+        <v>0.5304347826086957</v>
+      </c>
+      <c r="D6" s="23" t="n">
+        <v>0.4857142857142857</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Profit as % of revenue</t>
         </is>
       </c>
     </row>
@@ -1517,17 +2364,22 @@
         </is>
       </c>
       <c r="B7" s="14" t="n">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="C7" s="14" t="n">
+        <v>72000</v>
+      </c>
+      <c r="D7" s="14" t="n">
         <v>120000</v>
       </c>
-      <c r="D7" s="14" t="n">
-        <v>200000</v>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>views</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Verified ad impressions delivered</t>
         </is>
       </c>
     </row>
@@ -1537,18 +2389,23 @@
           <t>Store Value Created</t>
         </is>
       </c>
-      <c r="B9" s="22" t="n">
-        <v>8250</v>
-      </c>
-      <c r="C9" s="22" t="n">
-        <v>28500</v>
-      </c>
-      <c r="D9" s="22" t="n">
-        <v>57374.99999999997</v>
+      <c r="B9" s="27" t="n">
+        <v>4410</v>
+      </c>
+      <c r="C9" s="27" t="n">
+        <v>15480.00000000001</v>
+      </c>
+      <c r="D9" s="27" t="n">
+        <v>31365</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>$</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Traffic driven to partner stores</t>
         </is>
       </c>
     </row>
@@ -1558,18 +2415,23 @@
           <t>Reward Redemptions</t>
         </is>
       </c>
-      <c r="B10" s="22" t="n">
-        <v>4500</v>
-      </c>
-      <c r="C10" s="22" t="n">
-        <v>13500</v>
-      </c>
-      <c r="D10" s="22" t="n">
-        <v>25500</v>
+      <c r="B10" s="27" t="n">
+        <v>2160</v>
+      </c>
+      <c r="C10" s="27" t="n">
+        <v>6480</v>
+      </c>
+      <c r="D10" s="27" t="n">
+        <v>12240</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>$</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Value of rewards redeemed</t>
         </is>
       </c>
     </row>
@@ -1595,6 +2457,11 @@
       <c r="D13" t="n">
         <v>20</v>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>User engagement level</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1616,6 +2483,11 @@
           <t>%</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Power user distribution</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1635,13 +2507,18 @@
       <c r="E15" t="inlineStr">
         <is>
           <t>%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Users visiting stores to redeem</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1661,9 +2538,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="35" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1691,7 +2568,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Assumed marketing cost per user</t>
+          <t>Cost to acquire one new user (marketing)</t>
         </is>
       </c>
     </row>
@@ -1701,12 +2578,12 @@
           <t>Avg User Lifetime (months)</t>
         </is>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="11" t="n">
         <v>12</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>months</t>
+          <t>How long users stay active</t>
         </is>
       </c>
     </row>
@@ -1727,6 +2604,11 @@
         <f>B5*(Assumptions!B4)</f>
         <v/>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Lifetime * monthly bag revenue</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1735,8 +2617,13 @@
         </is>
       </c>
       <c r="B9" s="19">
-        <f>B5*Assumptions!B15*Assumptions!B11</f>
-        <v/>
+        <f>B5*Assumptions!B18*Assumptions!B11</f>
+        <v/>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Lifetime * monthly ad margin</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1749,6 +2636,11 @@
         <f>B8+B9</f>
         <v/>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Total value per user over lifetime</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -1763,13 +2655,13 @@
           <t>LTV:CAC Ratio</t>
         </is>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="28">
         <f>B10/B4</f>
         <v/>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Target: &gt;3x</t>
+          <t>&gt;3x = Good, &gt;5x = Great, &gt;10x = Excellent!</t>
         </is>
       </c>
     </row>
@@ -1780,8 +2672,13 @@
         </is>
       </c>
       <c r="B14" s="19">
-        <f>(Assumptions!B4)+(Assumptions!B15*Assumptions!B11)</f>
-        <v/>
+        <f>(Assumptions!B4)+(Assumptions!B18*Assumptions!B11)</f>
+        <v/>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Profit per user per month</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1790,13 +2687,13 @@
           <t>Payback Period (months)</t>
         </is>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="29">
         <f>B4/B14</f>
         <v/>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Target: &lt;6 months</t>
+          <t>&lt;6 months = Good, &lt;3 months = Great!</t>
         </is>
       </c>
     </row>
@@ -1813,9 +2710,14 @@
           <t>Annual Revenue (12 months)</t>
         </is>
       </c>
-      <c r="B18" s="22">
-        <f>Calculations!B8*12</f>
-        <v/>
+      <c r="B18" s="27">
+        <f>Calculations!B9*12</f>
+        <v/>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Yearly top-line projection</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1824,9 +2726,14 @@
           <t>Annual Margin (12 months)</t>
         </is>
       </c>
-      <c r="B19" s="25">
-        <f>Calculations!B13*12</f>
-        <v/>
+      <c r="B19" s="30">
+        <f>Calculations!B14*12</f>
+        <v/>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Yearly profit projection</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1835,9 +2742,14 @@
           <t>Annual Store Value Created</t>
         </is>
       </c>
-      <c r="B20" s="22">
-        <f>Calculations!B32*12*Assumptions!B33*1.15</f>
-        <v/>
+      <c r="B20" s="27">
+        <f>Calculations!B33*12*Assumptions!B36*1.15</f>
+        <v/>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Yearly value driven to partner stores</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1858,7 +2770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1866,12 +2778,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="55" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1889,497 +2801,1507 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>EXPLANATION: This table shows how your business performs if users watch MORE or FEWER ads per month.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>Higher engagement = More ad revenue &amp; rewards. Watch the margin % - it stays stable because rewards scale with views.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Ad Views</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Revenue</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>Margin</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>Margin %</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>User Rewards</t>
         </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="22" t="n">
-        <v>11500</v>
-      </c>
-      <c r="C5" s="22" t="n">
-        <v>7000</v>
-      </c>
-      <c r="D5" s="21" t="n">
-        <v>0.6086956521739131</v>
-      </c>
-      <c r="E5" s="19" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" s="22" t="n">
-        <v>19000</v>
-      </c>
-      <c r="C6" s="22" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D6" s="21" t="n">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="E6" s="19" t="n">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>9</v>
-      </c>
-      <c r="B7" s="22" t="n">
-        <v>26500</v>
-      </c>
-      <c r="C7" s="22" t="n">
-        <v>13000</v>
-      </c>
-      <c r="D7" s="21" t="n">
-        <v>0.4905660377358491</v>
-      </c>
-      <c r="E7" s="19" t="n">
-        <v>1.35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12</v>
-      </c>
-      <c r="B8" s="22" t="n">
-        <v>34000</v>
-      </c>
-      <c r="C8" s="22" t="n">
-        <v>16000</v>
-      </c>
-      <c r="D8" s="21" t="n">
-        <v>0.4705882352941176</v>
+        <v>3</v>
+      </c>
+      <c r="B8" s="27" t="n">
+        <v>7600</v>
+      </c>
+      <c r="C8" s="27" t="n">
+        <v>5440</v>
+      </c>
+      <c r="D8" s="23" t="n">
+        <v>0.7157894736842105</v>
       </c>
       <c r="E8" s="19" t="n">
-        <v>1.8</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>15</v>
-      </c>
-      <c r="B9" s="22" t="n">
-        <v>41500</v>
-      </c>
-      <c r="C9" s="22" t="n">
-        <v>19000</v>
-      </c>
-      <c r="D9" s="21" t="n">
-        <v>0.4578313253012049</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="27" t="n">
+        <v>11200</v>
+      </c>
+      <c r="C9" s="27" t="n">
+        <v>6880</v>
+      </c>
+      <c r="D9" s="23" t="n">
+        <v>0.6142857142857143</v>
       </c>
       <c r="E9" s="19" t="n">
-        <v>2.25</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>18</v>
-      </c>
-      <c r="B10" s="22" t="n">
-        <v>49000</v>
-      </c>
-      <c r="C10" s="22" t="n">
-        <v>22000</v>
-      </c>
-      <c r="D10" s="21" t="n">
-        <v>0.4489795918367347</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="27" t="n">
+        <v>14800</v>
+      </c>
+      <c r="C10" s="27" t="n">
+        <v>8320</v>
+      </c>
+      <c r="D10" s="23" t="n">
+        <v>0.5621621621621622</v>
       </c>
       <c r="E10" s="19" t="n">
-        <v>2.7</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20</v>
-      </c>
-      <c r="B11" s="22" t="n">
-        <v>54000</v>
-      </c>
-      <c r="C11" s="22" t="n">
-        <v>24000</v>
-      </c>
-      <c r="D11" s="21" t="n">
-        <v>0.4444444444444444</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="27" t="n">
+        <v>18400</v>
+      </c>
+      <c r="C11" s="27" t="n">
+        <v>9760</v>
+      </c>
+      <c r="D11" s="23" t="n">
+        <v>0.5304347826086957</v>
       </c>
       <c r="E11" s="19" t="n">
-        <v>3</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>15</v>
+      </c>
+      <c r="B12" s="27" t="n">
+        <v>22000</v>
+      </c>
+      <c r="C12" s="27" t="n">
+        <v>11200</v>
+      </c>
+      <c r="D12" s="23" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="E12" s="19" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>18</v>
+      </c>
+      <c r="B13" s="27" t="n">
+        <v>25600</v>
+      </c>
+      <c r="C13" s="27" t="n">
+        <v>12640</v>
+      </c>
+      <c r="D13" s="23" t="n">
+        <v>0.49375</v>
+      </c>
+      <c r="E13" s="19" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>20</v>
+      </c>
+      <c r="B14" s="27" t="n">
+        <v>28000</v>
+      </c>
+      <c r="C14" s="27" t="n">
+        <v>13600</v>
+      </c>
+      <c r="D14" s="23" t="n">
+        <v>0.4857142857142857</v>
+      </c>
+      <c r="E14" s="19" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
         <v>25</v>
       </c>
-      <c r="B12" s="22" t="n">
-        <v>66500</v>
-      </c>
-      <c r="C12" s="22" t="n">
-        <v>29000</v>
-      </c>
-      <c r="D12" s="21" t="n">
-        <v>0.4360902255639098</v>
-      </c>
-      <c r="E12" s="19" t="n">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="B15" s="27" t="n">
+        <v>34000</v>
+      </c>
+      <c r="C15" s="27" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D15" s="23" t="n">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="E15" s="19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>SENSITIVITY: Bag Retail Price</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>EXPLANATION: What happens if you price bags higher or lower? Higher price = more upfront revenue but may reduce volume.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>Key metric: User Net Cost. Negative = FREE bags after rewards! Watch this to keep bags attractive to users.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>Bag Price</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>Revenue</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>Margin</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>Margin %</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>User Net Cost</t>
         </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="19" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B17" s="22" t="n">
-        <v>32500</v>
-      </c>
-      <c r="C17" s="22" t="n">
-        <v>14500</v>
-      </c>
-      <c r="D17" s="21" t="n">
-        <v>0.4461538461538462</v>
-      </c>
-      <c r="E17" s="19" t="n">
-        <v>-0.2000000000000001</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="19" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="B18" s="22" t="n">
-        <v>33000</v>
-      </c>
-      <c r="C18" s="22" t="n">
-        <v>15000</v>
-      </c>
-      <c r="D18" s="21" t="n">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="E18" s="19" t="n">
-        <v>-0.1500000000000001</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="19" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="B19" s="22" t="n">
-        <v>33500</v>
-      </c>
-      <c r="C19" s="22" t="n">
-        <v>15500</v>
-      </c>
-      <c r="D19" s="21" t="n">
-        <v>0.4626865671641791</v>
-      </c>
-      <c r="E19" s="19" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="19" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="B20" s="22" t="n">
-        <v>34000</v>
-      </c>
-      <c r="C20" s="22" t="n">
-        <v>16000</v>
-      </c>
-      <c r="D20" s="21" t="n">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="E20" s="19" t="n">
-        <v>-0.05000000000000004</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="19" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="B21" s="22" t="n">
-        <v>34500</v>
-      </c>
-      <c r="C21" s="22" t="n">
-        <v>16500</v>
-      </c>
-      <c r="D21" s="21" t="n">
-        <v>0.4782608695652174</v>
-      </c>
-      <c r="E21" s="19" t="n">
-        <v>-5.551115123125783e-17</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B22" s="22" t="n">
-        <v>35000</v>
-      </c>
-      <c r="C22" s="22" t="n">
-        <v>17000</v>
-      </c>
-      <c r="D22" s="21" t="n">
-        <v>0.4857142857142857</v>
-      </c>
-      <c r="E22" s="19" t="n">
-        <v>0.04999999999999993</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="19" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="B23" s="22" t="n">
-        <v>36000</v>
-      </c>
-      <c r="C23" s="22" t="n">
-        <v>18000</v>
-      </c>
-      <c r="D23" s="21" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
+      </c>
+      <c r="B23" s="27" t="n">
+        <v>16900</v>
+      </c>
+      <c r="C23" s="27" t="n">
+        <v>8260</v>
+      </c>
+      <c r="D23" s="23" t="n">
+        <v>0.4887573964497041</v>
       </c>
       <c r="E23" s="19" t="n">
-        <v>0.1499999999999999</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B24" s="27" t="n">
+        <v>17400</v>
+      </c>
+      <c r="C24" s="27" t="n">
+        <v>8760</v>
+      </c>
+      <c r="D24" s="23" t="n">
+        <v>0.503448275862069</v>
+      </c>
+      <c r="E24" s="19" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="19" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B25" s="27" t="n">
+        <v>17900</v>
+      </c>
+      <c r="C25" s="27" t="n">
+        <v>9260</v>
+      </c>
+      <c r="D25" s="23" t="n">
+        <v>0.5173184357541899</v>
+      </c>
+      <c r="E25" s="19" t="n">
+        <v>-0.01000000000000001</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B26" s="27" t="n">
+        <v>18400</v>
+      </c>
+      <c r="C26" s="27" t="n">
+        <v>9760</v>
+      </c>
+      <c r="D26" s="23" t="n">
+        <v>0.5304347826086957</v>
+      </c>
+      <c r="E26" s="19" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="19" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B27" s="27" t="n">
+        <v>18900</v>
+      </c>
+      <c r="C27" s="27" t="n">
+        <v>10260</v>
+      </c>
+      <c r="D27" s="23" t="n">
+        <v>0.5428571428571428</v>
+      </c>
+      <c r="E27" s="19" t="n">
+        <v>0.09000000000000002</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B28" s="27" t="n">
+        <v>19400</v>
+      </c>
+      <c r="C28" s="27" t="n">
+        <v>10760</v>
+      </c>
+      <c r="D28" s="23" t="n">
+        <v>0.554639175257732</v>
+      </c>
+      <c r="E28" s="19" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B29" s="27" t="n">
+        <v>20400</v>
+      </c>
+      <c r="C29" s="27" t="n">
+        <v>11760</v>
+      </c>
+      <c r="D29" s="23" t="n">
+        <v>0.5764705882352941</v>
+      </c>
+      <c r="E29" s="19" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="19" t="n">
         <v>0.75</v>
       </c>
-      <c r="B24" s="22" t="n">
-        <v>37500</v>
-      </c>
-      <c r="C24" s="22" t="n">
-        <v>19500</v>
-      </c>
-      <c r="D24" s="21" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E24" s="19" t="n">
-        <v>0.2999999999999999</v>
+      <c r="B30" s="27" t="n">
+        <v>21900</v>
+      </c>
+      <c r="C30" s="27" t="n">
+        <v>13260</v>
+      </c>
+      <c r="D30" s="23" t="n">
+        <v>0.6054794520547945</v>
+      </c>
+      <c r="E30" s="19" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>SENSITIVITY: Monthly Volume (Bags Sold)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>EXPLANATION: This shows your business at different scales - from small pilot (5K bags) to large scale (50K+ bags/month).</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>Notice: Margin % stays constant! The model scales linearly. Store Value = traffic driven to partner stores (their revenue opportunity).</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>Bags Sold</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>Margin</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>Margin %</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>Store Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B38" s="27" t="n">
+        <v>9200</v>
+      </c>
+      <c r="C38" s="27" t="n">
+        <v>4880</v>
+      </c>
+      <c r="D38" s="23" t="n">
+        <v>0.5304347826086957</v>
+      </c>
+      <c r="E38" s="27" t="n">
+        <v>7740.000000000007</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="14" t="n">
+        <v>7500</v>
+      </c>
+      <c r="B39" s="27" t="n">
+        <v>13800</v>
+      </c>
+      <c r="C39" s="27" t="n">
+        <v>7320</v>
+      </c>
+      <c r="D39" s="23" t="n">
+        <v>0.5304347826086957</v>
+      </c>
+      <c r="E39" s="27" t="n">
+        <v>11610</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="14" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B40" s="27" t="n">
+        <v>18400</v>
+      </c>
+      <c r="C40" s="27" t="n">
+        <v>9760</v>
+      </c>
+      <c r="D40" s="23" t="n">
+        <v>0.5304347826086957</v>
+      </c>
+      <c r="E40" s="27" t="n">
+        <v>15480.00000000001</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="B41" s="27" t="n">
+        <v>27600</v>
+      </c>
+      <c r="C41" s="27" t="n">
+        <v>14640</v>
+      </c>
+      <c r="D41" s="23" t="n">
+        <v>0.5304347826086957</v>
+      </c>
+      <c r="E41" s="27" t="n">
+        <v>23220</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="14" t="n">
+        <v>20000</v>
+      </c>
+      <c r="B42" s="27" t="n">
+        <v>36800</v>
+      </c>
+      <c r="C42" s="27" t="n">
+        <v>19520</v>
+      </c>
+      <c r="D42" s="23" t="n">
+        <v>0.5304347826086957</v>
+      </c>
+      <c r="E42" s="27" t="n">
+        <v>30960.00000000003</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="14" t="n">
+        <v>25000</v>
+      </c>
+      <c r="B43" s="27" t="n">
+        <v>46000</v>
+      </c>
+      <c r="C43" s="27" t="n">
+        <v>24400</v>
+      </c>
+      <c r="D43" s="23" t="n">
+        <v>0.5304347826086957</v>
+      </c>
+      <c r="E43" s="27" t="n">
+        <v>38700</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="14" t="n">
+        <v>50000</v>
+      </c>
+      <c r="B44" s="27" t="n">
+        <v>92000</v>
+      </c>
+      <c r="C44" s="27" t="n">
+        <v>48800</v>
+      </c>
+      <c r="D44" s="23" t="n">
+        <v>0.5304347826086957</v>
+      </c>
+      <c r="E44" s="27" t="n">
+        <v>77400</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A20:F20"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>VISUAL COMPARISONS &amp; INSIGHTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="31" t="inlineStr">
+        <is>
+          <t>BRAND COST COMPARISON: Kshipra vs Meta</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Platform</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>CPM</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Cost per Engagement</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Kshipra BagBuddy</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>Calculations!B39</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>Calculations!B40</f>
+        <v/>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>100% verified engagement</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Meta/Facebook</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>Calculations!B44</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>Calculations!B46</f>
+        <v/>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Only 1% CTR (99% wasted)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="31" t="inlineStr">
+        <is>
+          <t>USER VALUE: How Users Get FREE Bags</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Component</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Bag Price (Paid Upfront)</t>
+        </is>
+      </c>
+      <c r="B21" s="19">
+        <f>Assumptions!B4</f>
+        <v/>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>What user pays</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Cash Rewards Earned</t>
+        </is>
+      </c>
+      <c r="B22" s="19">
+        <f>-Assumptions!B17*Assumptions!B9</f>
+        <v/>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Instant cash back</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Store Credit Earned</t>
+        </is>
+      </c>
+      <c r="B23" s="19">
+        <f>-Assumptions!B17*Assumptions!B10</f>
+        <v/>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Redeemable rewards</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Net Cost to User</t>
+        </is>
+      </c>
+      <c r="B24" s="32">
+        <f>Calculations!B28</f>
+        <v/>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Negative = FREE!</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="31" t="inlineStr">
+        <is>
+          <t>INVESTOR ATTRACTIVENESS</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>Rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>LTV:CAC Ratio</t>
+        </is>
+      </c>
+      <c r="B39" s="33">
+        <f>(12*(Assumptions!B4+Assumptions!B18*Assumptions!B11))/2</f>
+        <v/>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>&gt;3x</t>
+        </is>
+      </c>
+      <c r="D39" s="26" t="inlineStr">
+        <is>
+          <t>✅ EXCELLENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Payback Period</t>
+        </is>
+      </c>
+      <c r="B40" s="34">
+        <f>2/(Assumptions!B4+Assumptions!B18*Assumptions!B11)</f>
+        <v/>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>&lt;6 months</t>
+        </is>
+      </c>
+      <c r="D40" s="26" t="inlineStr">
+        <is>
+          <t>✅ EXCELLENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Margin %</t>
+        </is>
+      </c>
+      <c r="B41" s="23">
+        <f>Calculations!B14/Calculations!B9</f>
+        <v/>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>&gt;30%</t>
+        </is>
+      </c>
+      <c r="D41" s="26" t="inlineStr">
+        <is>
+          <t>✅ STRONG</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="31" t="inlineStr">
+        <is>
+          <t>VALUE TO PARTNER STORES</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Monthly Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Reward Redemptions</t>
+        </is>
+      </c>
+      <c r="B45" s="27">
+        <f>Calculations!B31*Assumptions!B33/100</f>
+        <v/>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Direct traffic to stores</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Baseline Basket Value</t>
+        </is>
+      </c>
+      <c r="B46" s="27">
+        <f>Calculations!B34</f>
+        <v/>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Standard purchases</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Incremental Basket Uplift</t>
+        </is>
+      </c>
+      <c r="B47" s="27">
+        <f>Calculations!B34*Assumptions!B35/100</f>
+        <v/>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Extra sales from rewards</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="35" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="13" t="inlineStr">
+        <is>
+          <t>REFERENCES &amp; DATA SOURCES</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>All assumptions in this model are based on verified industry data and published research.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>SOCIAL MEDIA ADVERTISING COSTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Value Used</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="35" t="inlineStr">
+        <is>
+          <t>Meta/Facebook CPM</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>$10.00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Meta Business Help Center, WordStream Benchmark Report</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="35" t="inlineStr">
+        <is>
+          <t>TikTok CPM</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>$8.50</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TikTok Business, Social Media Examiner</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="35" t="inlineStr">
+        <is>
+          <t>Industry Average CTR</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Facebook Ads Benchmarks by WordStream, HubSpot</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="36" t="inlineStr">
+        <is>
+          <t>Note: Actual CPMs vary by industry, targeting, and season. E-commerce typically $7-15.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>CONSUMER BEHAVIOR &amp; ENGAGEMENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Value Used</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="35" t="inlineStr">
+        <is>
+          <t>Active User Rate</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Industry avg for reward programs (Bond Brand Loyalty Report)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="35" t="inlineStr">
+        <is>
+          <t>Reward Redemption Rate</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Collinson Group Loyalty Census, COLLOQUY</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="35" t="inlineStr">
+        <is>
+          <t>Basket Size Uplift</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Accenture Strategy: Rewards Program Impact Study</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="35" t="inlineStr">
+        <is>
+          <t>Repeat Visit Increase</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Harvard Business Review: The Value of Keeping the Right Customers</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>INVESTOR METRICS BENCHMARKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Good Target</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Industry Standard</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="35" t="inlineStr">
+        <is>
+          <t>LTV:CAC Ratio</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>&gt;3:1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SaaS Capital, Pacific Crest SaaS Survey</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3:1 = Good, 5:1 = Great, &gt;10:1 = Excellent</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="35" t="inlineStr">
+        <is>
+          <t>CAC Payback Period</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>&lt;6 months</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>KeyBanc Capital Markets, OpenView Partners</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>&lt;6mo = Good, &lt;3mo = Excellent</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="35" t="inlineStr">
+        <is>
+          <t>Customer Lifetime</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>12 months</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Industry avg for consumer apps (Mixpanel, Amplitude)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6-18 months typical range</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="35" t="inlineStr">
+        <is>
+          <t>Gross Margin %</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>&gt;30%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SaaS benchmarks (though we're marketplace model)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>40-50% typical for tech platforms</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>KEY RESEARCH &amp; REPORTS</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>SENSITIVITY: Monthly Volume (Bags Sold)</t>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Description</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>Bags Sold</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>Margin</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>Margin %</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>Store Value</t>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Meta Business Help Center</t>
+        </is>
+      </c>
+      <c r="B28" s="37" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/business/help</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Official Facebook/Meta advertising documentation</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="14" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B29" s="22" t="n">
-        <v>17000</v>
-      </c>
-      <c r="C29" s="22" t="n">
-        <v>8000</v>
-      </c>
-      <c r="D29" s="21" t="n">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="E29" s="22" t="n">
-        <v>14250</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>WordStream Ad Benchmarks</t>
+        </is>
+      </c>
+      <c r="B29" s="37" t="inlineStr">
+        <is>
+          <t>https://www.wordstream.com/blog/ws/2022/03/21/facebook-ad-benchmarks</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Industry CPM and CTR benchmarks</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="14" t="n">
-        <v>7500</v>
-      </c>
-      <c r="B30" s="22" t="n">
-        <v>25500</v>
-      </c>
-      <c r="C30" s="22" t="n">
-        <v>12000</v>
-      </c>
-      <c r="D30" s="21" t="n">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="E30" s="22" t="n">
-        <v>21375</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Bond Brand Loyalty Report</t>
+        </is>
+      </c>
+      <c r="B30" s="37" t="inlineStr">
+        <is>
+          <t>https://bondbrandloyalty.com/reports/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Annual loyalty program engagement statistics</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="14" t="n">
-        <v>10000</v>
-      </c>
-      <c r="B31" s="22" t="n">
-        <v>34000</v>
-      </c>
-      <c r="C31" s="22" t="n">
-        <v>16000</v>
-      </c>
-      <c r="D31" s="21" t="n">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="E31" s="22" t="n">
-        <v>28500</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Collinson Loyalty Census</t>
+        </is>
+      </c>
+      <c r="B31" s="37" t="inlineStr">
+        <is>
+          <t>https://www.collinsongroup.com/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Global loyalty program redemption rates</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="14" t="n">
-        <v>15000</v>
-      </c>
-      <c r="B32" s="22" t="n">
-        <v>51000</v>
-      </c>
-      <c r="C32" s="22" t="n">
-        <v>24000</v>
-      </c>
-      <c r="D32" s="21" t="n">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="E32" s="22" t="n">
-        <v>42750</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>HubSpot Marketing Statistics</t>
+        </is>
+      </c>
+      <c r="B32" s="37" t="inlineStr">
+        <is>
+          <t>https://www.hubspot.com/marketing-statistics</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Social media CTR benchmarks</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="14" t="n">
-        <v>20000</v>
-      </c>
-      <c r="B33" s="22" t="n">
-        <v>68000</v>
-      </c>
-      <c r="C33" s="22" t="n">
-        <v>32000</v>
-      </c>
-      <c r="D33" s="21" t="n">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="E33" s="22" t="n">
-        <v>57000</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SaaS Capital Survey</t>
+        </is>
+      </c>
+      <c r="B33" s="37" t="inlineStr">
+        <is>
+          <t>https://www.saas-capital.com/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>LTV:CAC and SaaS metrics benchmarks</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="14" t="n">
-        <v>25000</v>
-      </c>
-      <c r="B34" s="22" t="n">
-        <v>85000</v>
-      </c>
-      <c r="C34" s="22" t="n">
-        <v>40000</v>
-      </c>
-      <c r="D34" s="21" t="n">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="E34" s="22" t="n">
-        <v>71250.00000000006</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Pacific Crest SaaS Survey</t>
+        </is>
+      </c>
+      <c r="B34" s="37" t="inlineStr">
+        <is>
+          <t>https://www.bvp.com/atlas/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Annual SaaS company metrics (via BVP)</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="14" t="n">
-        <v>50000</v>
-      </c>
-      <c r="B35" s="22" t="n">
-        <v>170000</v>
-      </c>
-      <c r="C35" s="22" t="n">
-        <v>80000</v>
-      </c>
-      <c r="D35" s="21" t="n">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="E35" s="22" t="n">
-        <v>142500.0000000001</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Accenture Strategy</t>
+        </is>
+      </c>
+      <c r="B35" s="37" t="inlineStr">
+        <is>
+          <t>https://www.accenture.com/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Retail loyalty program impact studies</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>METHODOLOGY NOTES</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="38" t="inlineStr">
+        <is>
+          <t>1. All financial projections are conservative estimates based on current market data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="38" t="inlineStr">
+        <is>
+          <t>2. CPM values represent median industry benchmarks; actual costs vary by targeting and competition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="38" t="inlineStr">
+        <is>
+          <t>3. User engagement rates (60% active) account for natural drop-off in reward program participation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="38" t="inlineStr">
+        <is>
+          <t>4. Redemption rates (75%) align with high-performing grocery/retail loyalty programs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="38" t="inlineStr">
+        <is>
+          <t>5. Basket uplift (8%) is conservative compared to industry average of 10-15% for reward-driven purchases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="38" t="inlineStr">
+        <is>
+          <t>6. Kshipra's verified engagement model eliminates ad fraud and bot traffic common in digital advertising.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="38" t="inlineStr">
+        <is>
+          <t>7. Traditional social media CTR of 1% means brands waste 99% of impression budget on non-engaged users.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="38" t="inlineStr">
+        <is>
+          <t>8. Our model assumes brands value verified engagement 20x higher than unverified impressions.</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A15:F15"/>
+  <mergeCells count="16">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A44:D44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/brand/kshipra_commerce_reward_model.xlsx
+++ b/brand/kshipra_commerce_reward_model.xlsx
@@ -162,8 +162,8 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1027,7 +1027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1098,333 +1098,333 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>AD ECONOMICS</t>
+          <t>BRAND PARTNERSHIP GROWTH</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CPV - Brand Pays per View</t>
-        </is>
-      </c>
-      <c r="B8" s="9" t="n">
-        <v>0.2</v>
+          <t>Initial Brands Enrolled</t>
+        </is>
+      </c>
+      <c r="B8" s="11" t="n">
+        <v>10</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$</t>
+          <t>brands</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Revenue per verified ad view (100% engagement)</t>
+          <t>Starting number of brand advertisers</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Quarterly Brand Growth Rate</t>
+        </is>
+      </c>
+      <c r="B9" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>% increase in brands each quarter (compounding)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>AD ECONOMICS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CPV - Brand Pays per View</t>
+        </is>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Revenue per verified ad view (100% engagement)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Cash Credit per View</t>
         </is>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B13" s="9" t="n">
         <v>0.06</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Instant cash reward to user (goes to wallet)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Reward Points per View</t>
-        </is>
-      </c>
-      <c r="B10" s="9" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Store credit reward (redeemable at partner stores)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Kshipra Margin per View</t>
-        </is>
-      </c>
-      <c r="B11" s="9" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Our profit per ad = CPV - Cash - Rewards</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>USER ENGAGEMENT</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Active User Rate</t>
-        </is>
-      </c>
-      <c r="B14" s="11" t="n">
-        <v>60</v>
+          <t>Reward Points per View</t>
+        </is>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>0.06</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>$</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>% of buyers who actually watch ads to earn rewards</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>USER BEHAVIOR</t>
+          <t>Store credit reward (redeemable at partner stores)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Kshipra Margin per View</t>
+        </is>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Our profit per ad = CPV - Cash - Rewards</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Avg Ads to Recover Bag Cost</t>
-        </is>
-      </c>
-      <c r="B17" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ads</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>How many ads needed to make bag FREE</t>
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>USER ENGAGEMENT</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Avg Monthly Ad Views per User</t>
+          <t>Active User Rate</t>
         </is>
       </c>
       <c r="B18" s="12" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>views</t>
+          <t>%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Engagement level: ads watched per active user/month</t>
+          <t>% of buyers who actually watch ads to earn rewards</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>TIER CASH CREDIT LIMITS</t>
+          <t>USER BEHAVIOR</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Bronze - Bag Values/Month</t>
+          <t>Avg Ads to Recover Bag Cost</t>
         </is>
       </c>
       <c r="B21" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ads</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Low-engagement: 1 bag purchase/month</t>
+          <t>How many ads needed to make bag FREE</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>Avg Monthly Ad Views per User</t>
+        </is>
+      </c>
+      <c r="B22" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Engagement level: ads watched per active user/month</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>TIER CASH CREDIT LIMITS</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Bronze - Bag Values/Month</t>
+        </is>
+      </c>
+      <c r="B25" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Low-engagement: 1 bag purchase/month</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>Silver - Bag Values/Month</t>
         </is>
       </c>
-      <c r="B22" s="11" t="n">
+      <c r="B26" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Medium-engagement: 3 bags/month</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Gold - Bag Values/Month</t>
-        </is>
-      </c>
-      <c r="B23" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>High-engagement: 7 bags/month</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Platinum - Daily Cap ($)</t>
-        </is>
-      </c>
-      <c r="B24" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Super users: $1/day earning limit</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>USER DISTRIBUTION BY TIER (%)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Bronze %</t>
-        </is>
-      </c>
-      <c r="B27" s="11" t="n">
-        <v>60</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
+          <t>Gold - Bag Values/Month</t>
+        </is>
+      </c>
+      <c r="B27" s="12" t="n">
+        <v>7</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Most users are casual shoppers</t>
+          <t>High-engagement: 7 bags/month</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>Platinum - Daily Cap ($)</t>
+        </is>
+      </c>
+      <c r="B28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Super users: $1/day earning limit</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>USER DISTRIBUTION BY TIER (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Bronze %</t>
+        </is>
+      </c>
+      <c r="B31" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Most users are casual shoppers</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>Silver %</t>
         </is>
       </c>
-      <c r="B28" s="11" t="n">
+      <c r="B32" s="12" t="n">
         <v>25</v>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Regular shoppers</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Gold %</t>
-        </is>
-      </c>
-      <c r="B29" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Frequent shoppers</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Platinum %</t>
-        </is>
-      </c>
-      <c r="B30" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Power users (heavy engagement)</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>STORE &amp; REDEMPTION METRICS</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Reward Redemption Rate</t>
-        </is>
-      </c>
-      <c r="B33" s="11" t="n">
-        <v>75</v>
+          <t>Gold %</t>
+        </is>
+      </c>
+      <c r="B33" s="12" t="n">
+        <v>12</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1433,148 +1433,196 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>% of users who redeem rewards at stores</t>
+          <t>Frequent shoppers</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>Platinum %</t>
+        </is>
+      </c>
+      <c r="B34" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Power users (heavy engagement)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>STORE &amp; REDEMPTION METRICS</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Reward Redemption Rate</t>
+        </is>
+      </c>
+      <c r="B37" s="12" t="n">
+        <v>75</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>% of users who redeem rewards at stores</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>Repeat Visit Increase</t>
         </is>
       </c>
-      <c r="B34" s="11" t="n">
+      <c r="B38" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>Users visit more often to use rewards</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Basket Size Uplift</t>
-        </is>
-      </c>
-      <c r="B35" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Users buy more when they have rewards</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Average Basket Value</t>
-        </is>
-      </c>
-      <c r="B36" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Typical purchase amount per store visit</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>BRAND BENCHMARKS</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Meta CPM</t>
-        </is>
-      </c>
-      <c r="B39" s="9" t="n">
-        <v>10</v>
+          <t>Basket Size Uplift</t>
+        </is>
+      </c>
+      <c r="B39" s="12" t="n">
+        <v>8</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$</t>
+          <t>%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Facebook/Instagram ad cost per 1000 impressions</t>
+          <t>Users buy more when they have rewards</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>Average Basket Value</t>
+        </is>
+      </c>
+      <c r="B40" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Typical purchase amount per store visit</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>BRAND BENCHMARKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Meta CPM</t>
+        </is>
+      </c>
+      <c r="B43" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Facebook/Instagram ad cost per 1000 impressions</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>TikTok CPM</t>
         </is>
       </c>
-      <c r="B40" s="9" t="n">
+      <c r="B44" s="9" t="n">
         <v>8.5</v>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>TikTok ad cost per 1000 impressions</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>Industry Avg CTR</t>
         </is>
       </c>
-      <c r="B41" s="11" t="n">
+      <c r="B45" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>Click-through rate on social media ads (only 1% engage!)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A30:D30"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A36:D36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1636,7 +1684,7 @@
         </is>
       </c>
       <c r="B5" s="14">
-        <f>Assumptions!B5*Assumptions!B14/100</f>
+        <f>Assumptions!B5*Assumptions!B18/100</f>
         <v/>
       </c>
       <c r="C5" t="inlineStr">
@@ -1668,7 +1716,7 @@
         </is>
       </c>
       <c r="B7" s="14">
-        <f>B5*Assumptions!B18</f>
+        <f>B5*Assumptions!B22</f>
         <v/>
       </c>
       <c r="C7" t="inlineStr">
@@ -1684,7 +1732,7 @@
         </is>
       </c>
       <c r="B8" s="15">
-        <f>B7*Assumptions!B8</f>
+        <f>B7*Assumptions!B12</f>
         <v/>
       </c>
       <c r="C8" t="inlineStr">
@@ -1716,7 +1764,7 @@
         </is>
       </c>
       <c r="B11" s="15">
-        <f>B7*Assumptions!B9</f>
+        <f>B7*Assumptions!B13</f>
         <v/>
       </c>
       <c r="C11" t="inlineStr">
@@ -1732,7 +1780,7 @@
         </is>
       </c>
       <c r="B12" s="15">
-        <f>B7*Assumptions!B10</f>
+        <f>B7*Assumptions!B14</f>
         <v/>
       </c>
       <c r="C12" t="inlineStr">
@@ -1748,7 +1796,7 @@
         </is>
       </c>
       <c r="B13" s="15">
-        <f>B7*Assumptions!B11</f>
+        <f>B7*Assumptions!B15</f>
         <v/>
       </c>
       <c r="C13" t="inlineStr">
@@ -1803,7 +1851,7 @@
         </is>
       </c>
       <c r="B18">
-        <f>Assumptions!B18</f>
+        <f>Assumptions!B22</f>
         <v/>
       </c>
       <c r="C18" t="inlineStr">
@@ -1819,7 +1867,7 @@
         </is>
       </c>
       <c r="B19" s="19">
-        <f>Assumptions!B18*Assumptions!B8</f>
+        <f>Assumptions!B22*Assumptions!B12</f>
         <v/>
       </c>
       <c r="C19" t="inlineStr">
@@ -1835,7 +1883,7 @@
         </is>
       </c>
       <c r="B20" s="19">
-        <f>Assumptions!B18*(Assumptions!B9+Assumptions!B10)</f>
+        <f>Assumptions!B22*(Assumptions!B13+Assumptions!B14)</f>
         <v/>
       </c>
       <c r="C20" t="inlineStr">
@@ -1851,7 +1899,7 @@
         </is>
       </c>
       <c r="B21" s="19">
-        <f>Assumptions!B18*Assumptions!B11</f>
+        <f>Assumptions!B22*Assumptions!B15</f>
         <v/>
       </c>
       <c r="C21" t="inlineStr">
@@ -1890,7 +1938,7 @@
         </is>
       </c>
       <c r="B25">
-        <f>Assumptions!B17</f>
+        <f>Assumptions!B21</f>
         <v/>
       </c>
       <c r="C25" t="inlineStr">
@@ -1906,7 +1954,7 @@
         </is>
       </c>
       <c r="B26" s="19">
-        <f>Assumptions!B17*Assumptions!B8</f>
+        <f>Assumptions!B21*Assumptions!B12</f>
         <v/>
       </c>
       <c r="C26" t="inlineStr">
@@ -1922,7 +1970,7 @@
         </is>
       </c>
       <c r="B27" s="19">
-        <f>Assumptions!B17*(Assumptions!B9+Assumptions!B10)</f>
+        <f>Assumptions!B21*(Assumptions!B13+Assumptions!B14)</f>
         <v/>
       </c>
       <c r="C27" t="inlineStr">
@@ -1961,7 +2009,7 @@
         </is>
       </c>
       <c r="B31" s="15">
-        <f>B7*(Assumptions!B9+Assumptions!B10)</f>
+        <f>B7*(Assumptions!B13+Assumptions!B14)</f>
         <v/>
       </c>
       <c r="C31" t="inlineStr">
@@ -1977,7 +2025,7 @@
         </is>
       </c>
       <c r="B32" s="15">
-        <f>B31*Assumptions!B33/100</f>
+        <f>B31*Assumptions!B37/100</f>
         <v/>
       </c>
       <c r="C32" t="inlineStr">
@@ -1993,7 +2041,7 @@
         </is>
       </c>
       <c r="B33" s="14">
-        <f>Assumptions!B5*Assumptions!B33/100</f>
+        <f>Assumptions!B5*Assumptions!B37/100</f>
         <v/>
       </c>
       <c r="C33" t="inlineStr">
@@ -2009,7 +2057,7 @@
         </is>
       </c>
       <c r="B34" s="15">
-        <f>B33*Assumptions!B36</f>
+        <f>B33*Assumptions!B40</f>
         <v/>
       </c>
       <c r="C34" t="inlineStr">
@@ -2025,7 +2073,7 @@
         </is>
       </c>
       <c r="B35" s="15">
-        <f>B34*Assumptions!B35/100</f>
+        <f>B34*Assumptions!B39/100</f>
         <v/>
       </c>
       <c r="C35" t="inlineStr">
@@ -2055,7 +2103,7 @@
         </is>
       </c>
       <c r="B39" s="19">
-        <f>Assumptions!B8*1000</f>
+        <f>Assumptions!B12*1000</f>
         <v/>
       </c>
       <c r="C39" t="inlineStr">
@@ -2071,7 +2119,7 @@
         </is>
       </c>
       <c r="B40" s="19">
-        <f>Assumptions!B8</f>
+        <f>Assumptions!B12</f>
         <v/>
       </c>
       <c r="C40" t="inlineStr">
@@ -2110,7 +2158,7 @@
         </is>
       </c>
       <c r="B44" s="19">
-        <f>Assumptions!B39</f>
+        <f>Assumptions!B43</f>
         <v/>
       </c>
       <c r="C44" t="inlineStr">
@@ -2126,7 +2174,7 @@
         </is>
       </c>
       <c r="B45" s="23">
-        <f>Assumptions!B41</f>
+        <f>Assumptions!B45</f>
         <v/>
       </c>
       <c r="C45" t="inlineStr">
@@ -2142,7 +2190,7 @@
         </is>
       </c>
       <c r="B46" s="19">
-        <f>(Assumptions!B39/1000)/(Assumptions!B41/100)</f>
+        <f>(Assumptions!B43/1000)/(Assumptions!B45/100)</f>
         <v/>
       </c>
       <c r="C46" t="inlineStr">
@@ -2578,7 +2626,7 @@
           <t>Avg User Lifetime (months)</t>
         </is>
       </c>
-      <c r="B5" s="11" t="n">
+      <c r="B5" s="12" t="n">
         <v>12</v>
       </c>
       <c r="C5" t="inlineStr">
@@ -2617,7 +2665,7 @@
         </is>
       </c>
       <c r="B9" s="19">
-        <f>B5*Assumptions!B18*Assumptions!B11</f>
+        <f>B5*Assumptions!B22*Assumptions!B15</f>
         <v/>
       </c>
       <c r="C9" t="inlineStr">
@@ -2672,7 +2720,7 @@
         </is>
       </c>
       <c r="B14" s="19">
-        <f>(Assumptions!B4)+(Assumptions!B18*Assumptions!B11)</f>
+        <f>(Assumptions!B4)+(Assumptions!B22*Assumptions!B15)</f>
         <v/>
       </c>
       <c r="C14" t="inlineStr">
@@ -2743,7 +2791,7 @@
         </is>
       </c>
       <c r="B20" s="27">
-        <f>Calculations!B33*12*Assumptions!B36*1.15</f>
+        <f>Calculations!B33*12*Assumptions!B40*1.15</f>
         <v/>
       </c>
       <c r="C20" t="inlineStr">
@@ -3478,7 +3526,7 @@
         </is>
       </c>
       <c r="B22" s="19">
-        <f>-Assumptions!B17*Assumptions!B9</f>
+        <f>-Assumptions!B21*Assumptions!B13</f>
         <v/>
       </c>
       <c r="C22" t="inlineStr">
@@ -3494,7 +3542,7 @@
         </is>
       </c>
       <c r="B23" s="19">
-        <f>-Assumptions!B17*Assumptions!B10</f>
+        <f>-Assumptions!B21*Assumptions!B14</f>
         <v/>
       </c>
       <c r="C23" t="inlineStr">
@@ -3555,7 +3603,7 @@
         </is>
       </c>
       <c r="B39" s="33">
-        <f>(12*(Assumptions!B4+Assumptions!B18*Assumptions!B11))/2</f>
+        <f>(12*(Assumptions!B4+Assumptions!B22*Assumptions!B15))/2</f>
         <v/>
       </c>
       <c r="C39" t="inlineStr">
@@ -3576,7 +3624,7 @@
         </is>
       </c>
       <c r="B40" s="34">
-        <f>2/(Assumptions!B4+Assumptions!B18*Assumptions!B11)</f>
+        <f>2/(Assumptions!B4+Assumptions!B22*Assumptions!B15)</f>
         <v/>
       </c>
       <c r="C40" t="inlineStr">
@@ -3637,7 +3685,7 @@
         </is>
       </c>
       <c r="B45" s="27">
-        <f>Calculations!B31*Assumptions!B33/100</f>
+        <f>Calculations!B31*Assumptions!B37/100</f>
         <v/>
       </c>
       <c r="C45" t="inlineStr">
@@ -3669,7 +3717,7 @@
         </is>
       </c>
       <c r="B47" s="27">
-        <f>Calculations!B34*Assumptions!B35/100</f>
+        <f>Calculations!B34*Assumptions!B39/100</f>
         <v/>
       </c>
       <c r="C47" t="inlineStr">

--- a/brand/kshipra_commerce_reward_model.xlsx
+++ b/brand/kshipra_commerce_reward_model.xlsx
@@ -162,8 +162,8 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1027,7 +1027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1091,92 +1091,92 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Monthly volume - scale this to model growth</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+          <t>Initial monthly volume - will grow quarterly</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Quarterly Bag Sales Growth</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>% increase in bag sales each quarter (compounding)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>BRAND PARTNERSHIP GROWTH</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Initial Brands Enrolled</t>
-        </is>
-      </c>
-      <c r="B8" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>brands</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Starting number of brand advertisers</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Initial Brands Enrolled</t>
+        </is>
+      </c>
+      <c r="B9" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>brands</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Starting number of brand advertisers</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Quarterly Brand Growth Rate</t>
         </is>
       </c>
-      <c r="B9" s="12" t="n">
+      <c r="B10" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>% increase in brands each quarter (compounding)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>AD ECONOMICS</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>CPV - Brand Pays per View</t>
-        </is>
-      </c>
-      <c r="B12" s="9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Revenue per verified ad view (100% engagement)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cash Credit per View</t>
+          <t>CPV - Brand Pays per View</t>
         </is>
       </c>
       <c r="B13" s="9" t="n">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1185,14 +1185,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Instant cash reward to user (goes to wallet)</t>
+          <t>Revenue per verified ad view (100% engagement)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Reward Points per View</t>
+          <t>Cash Credit per View</t>
         </is>
       </c>
       <c r="B14" s="9" t="n">
@@ -1205,206 +1205,206 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Store credit reward (redeemable at partner stores)</t>
+          <t>Instant cash reward to user (goes to wallet)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Reward Points per View</t>
+        </is>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Store credit reward (redeemable at partner stores)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Kshipra Margin per View</t>
         </is>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B16" s="9" t="n">
         <v>0.08</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Our profit per ad = CPV - Cash - Rewards</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>USER ENGAGEMENT</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Active User Rate</t>
         </is>
       </c>
-      <c r="B18" s="12" t="n">
+      <c r="B19" s="11" t="n">
         <v>60</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>% of buyers who actually watch ads to earn rewards</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>USER BEHAVIOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Avg Ads to Recover Bag Cost</t>
-        </is>
-      </c>
-      <c r="B21" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>ads</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>How many ads needed to make bag FREE</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>Avg Ads to Recover Bag Cost</t>
+        </is>
+      </c>
+      <c r="B22" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ads</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>How many ads needed to make bag FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>Avg Monthly Ad Views per User</t>
         </is>
       </c>
-      <c r="B22" s="11" t="n">
+      <c r="B23" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>views</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Engagement level: ads watched per active user/month</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>TIER CASH CREDIT LIMITS</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Bronze - Bag Values/Month</t>
-        </is>
-      </c>
-      <c r="B25" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Low-engagement: 1 bag purchase/month</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Silver - Bag Values/Month</t>
-        </is>
-      </c>
-      <c r="B26" s="12" t="n">
-        <v>3</v>
+          <t>Bronze - Bag Values/Month</t>
+        </is>
+      </c>
+      <c r="B26" s="11" t="n">
+        <v>1</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Medium-engagement: 3 bags/month</t>
+          <t>Low-engagement: 1 bag purchase/month</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Gold - Bag Values/Month</t>
-        </is>
-      </c>
-      <c r="B27" s="12" t="n">
-        <v>7</v>
+          <t>Silver - Bag Values/Month</t>
+        </is>
+      </c>
+      <c r="B27" s="11" t="n">
+        <v>3</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>High-engagement: 7 bags/month</t>
+          <t>Medium-engagement: 3 bags/month</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>Gold - Bag Values/Month</t>
+        </is>
+      </c>
+      <c r="B28" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>High-engagement: 7 bags/month</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>Platinum - Daily Cap ($)</t>
         </is>
       </c>
-      <c r="B28" s="9" t="n">
+      <c r="B29" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Super users: $1/day earning limit</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>USER DISTRIBUTION BY TIER (%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Bronze %</t>
-        </is>
-      </c>
-      <c r="B31" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Most users are casual shoppers</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Silver %</t>
-        </is>
-      </c>
-      <c r="B32" s="12" t="n">
-        <v>25</v>
+          <t>Bronze %</t>
+        </is>
+      </c>
+      <c r="B32" s="11" t="n">
+        <v>60</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1413,18 +1413,18 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Regular shoppers</t>
+          <t>Most users are casual shoppers</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Gold %</t>
-        </is>
-      </c>
-      <c r="B33" s="12" t="n">
-        <v>12</v>
+          <t>Silver %</t>
+        </is>
+      </c>
+      <c r="B33" s="11" t="n">
+        <v>25</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1433,65 +1433,65 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Frequent shoppers</t>
+          <t>Regular shoppers</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>Gold %</t>
+        </is>
+      </c>
+      <c r="B34" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Frequent shoppers</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>Platinum %</t>
         </is>
       </c>
-      <c r="B34" s="12" t="n">
+      <c r="B35" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>Power users (heavy engagement)</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
         <is>
           <t>STORE &amp; REDEMPTION METRICS</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Reward Redemption Rate</t>
-        </is>
-      </c>
-      <c r="B37" s="12" t="n">
-        <v>75</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>% of users who redeem rewards at stores</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Repeat Visit Increase</t>
-        </is>
-      </c>
-      <c r="B38" s="12" t="n">
-        <v>15</v>
+          <t>Reward Redemption Rate</t>
+        </is>
+      </c>
+      <c r="B38" s="11" t="n">
+        <v>75</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1500,18 +1500,18 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Users visit more often to use rewards</t>
+          <t>% of users who redeem rewards at stores</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Basket Size Uplift</t>
-        </is>
-      </c>
-      <c r="B39" s="12" t="n">
-        <v>8</v>
+          <t>Repeat Visit Increase</t>
+        </is>
+      </c>
+      <c r="B39" s="11" t="n">
+        <v>15</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1520,65 +1520,65 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Users buy more when they have rewards</t>
+          <t>Users visit more often to use rewards</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>Basket Size Uplift</t>
+        </is>
+      </c>
+      <c r="B40" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Users buy more when they have rewards</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>Average Basket Value</t>
         </is>
       </c>
-      <c r="B40" s="9" t="n">
+      <c r="B41" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>Typical purchase amount per store visit</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>BRAND BENCHMARKS</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Meta CPM</t>
-        </is>
-      </c>
-      <c r="B43" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Facebook/Instagram ad cost per 1000 impressions</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TikTok CPM</t>
+          <t>Meta CPM</t>
         </is>
       </c>
       <c r="B44" s="9" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1587,25 +1587,45 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>TikTok ad cost per 1000 impressions</t>
+          <t>Facebook/Instagram ad cost per 1000 impressions</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>TikTok CPM</t>
+        </is>
+      </c>
+      <c r="B45" s="9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>TikTok ad cost per 1000 impressions</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
           <t>Industry Avg CTR</t>
         </is>
       </c>
-      <c r="B45" s="12" t="n">
+      <c r="B46" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>Click-through rate on social media ads (only 1% engage!)</t>
         </is>
@@ -1614,15 +1634,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A43:D43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1684,7 +1704,7 @@
         </is>
       </c>
       <c r="B5" s="14">
-        <f>Assumptions!B5*Assumptions!B18/100</f>
+        <f>Assumptions!B5*Assumptions!B19/100</f>
         <v/>
       </c>
       <c r="C5" t="inlineStr">
@@ -1716,7 +1736,7 @@
         </is>
       </c>
       <c r="B7" s="14">
-        <f>B5*Assumptions!B22</f>
+        <f>B5*Assumptions!B23</f>
         <v/>
       </c>
       <c r="C7" t="inlineStr">
@@ -1732,7 +1752,7 @@
         </is>
       </c>
       <c r="B8" s="15">
-        <f>B7*Assumptions!B12</f>
+        <f>B7*Assumptions!B13</f>
         <v/>
       </c>
       <c r="C8" t="inlineStr">
@@ -1764,7 +1784,7 @@
         </is>
       </c>
       <c r="B11" s="15">
-        <f>B7*Assumptions!B13</f>
+        <f>B7*Assumptions!B14</f>
         <v/>
       </c>
       <c r="C11" t="inlineStr">
@@ -1780,7 +1800,7 @@
         </is>
       </c>
       <c r="B12" s="15">
-        <f>B7*Assumptions!B14</f>
+        <f>B7*Assumptions!B15</f>
         <v/>
       </c>
       <c r="C12" t="inlineStr">
@@ -1796,7 +1816,7 @@
         </is>
       </c>
       <c r="B13" s="15">
-        <f>B7*Assumptions!B15</f>
+        <f>B7*Assumptions!B16</f>
         <v/>
       </c>
       <c r="C13" t="inlineStr">
@@ -1851,7 +1871,7 @@
         </is>
       </c>
       <c r="B18">
-        <f>Assumptions!B22</f>
+        <f>Assumptions!B23</f>
         <v/>
       </c>
       <c r="C18" t="inlineStr">
@@ -1867,7 +1887,7 @@
         </is>
       </c>
       <c r="B19" s="19">
-        <f>Assumptions!B22*Assumptions!B12</f>
+        <f>Assumptions!B23*Assumptions!B13</f>
         <v/>
       </c>
       <c r="C19" t="inlineStr">
@@ -1883,7 +1903,7 @@
         </is>
       </c>
       <c r="B20" s="19">
-        <f>Assumptions!B22*(Assumptions!B13+Assumptions!B14)</f>
+        <f>Assumptions!B23*(Assumptions!B14+Assumptions!B15)</f>
         <v/>
       </c>
       <c r="C20" t="inlineStr">
@@ -1899,7 +1919,7 @@
         </is>
       </c>
       <c r="B21" s="19">
-        <f>Assumptions!B22*Assumptions!B15</f>
+        <f>Assumptions!B23*Assumptions!B16</f>
         <v/>
       </c>
       <c r="C21" t="inlineStr">
@@ -1938,7 +1958,7 @@
         </is>
       </c>
       <c r="B25">
-        <f>Assumptions!B21</f>
+        <f>Assumptions!B22</f>
         <v/>
       </c>
       <c r="C25" t="inlineStr">
@@ -1954,7 +1974,7 @@
         </is>
       </c>
       <c r="B26" s="19">
-        <f>Assumptions!B21*Assumptions!B12</f>
+        <f>Assumptions!B22*Assumptions!B13</f>
         <v/>
       </c>
       <c r="C26" t="inlineStr">
@@ -1970,7 +1990,7 @@
         </is>
       </c>
       <c r="B27" s="19">
-        <f>Assumptions!B21*(Assumptions!B13+Assumptions!B14)</f>
+        <f>Assumptions!B22*(Assumptions!B14+Assumptions!B15)</f>
         <v/>
       </c>
       <c r="C27" t="inlineStr">
@@ -2009,7 +2029,7 @@
         </is>
       </c>
       <c r="B31" s="15">
-        <f>B7*(Assumptions!B13+Assumptions!B14)</f>
+        <f>B7*(Assumptions!B14+Assumptions!B15)</f>
         <v/>
       </c>
       <c r="C31" t="inlineStr">
@@ -2025,7 +2045,7 @@
         </is>
       </c>
       <c r="B32" s="15">
-        <f>B31*Assumptions!B37/100</f>
+        <f>B31*Assumptions!B38/100</f>
         <v/>
       </c>
       <c r="C32" t="inlineStr">
@@ -2041,7 +2061,7 @@
         </is>
       </c>
       <c r="B33" s="14">
-        <f>Assumptions!B5*Assumptions!B37/100</f>
+        <f>Assumptions!B5*Assumptions!B38/100</f>
         <v/>
       </c>
       <c r="C33" t="inlineStr">
@@ -2057,7 +2077,7 @@
         </is>
       </c>
       <c r="B34" s="15">
-        <f>B33*Assumptions!B40</f>
+        <f>B33*Assumptions!B41</f>
         <v/>
       </c>
       <c r="C34" t="inlineStr">
@@ -2073,7 +2093,7 @@
         </is>
       </c>
       <c r="B35" s="15">
-        <f>B34*Assumptions!B39/100</f>
+        <f>B34*Assumptions!B40/100</f>
         <v/>
       </c>
       <c r="C35" t="inlineStr">
@@ -2103,7 +2123,7 @@
         </is>
       </c>
       <c r="B39" s="19">
-        <f>Assumptions!B12*1000</f>
+        <f>Assumptions!B13*1000</f>
         <v/>
       </c>
       <c r="C39" t="inlineStr">
@@ -2119,7 +2139,7 @@
         </is>
       </c>
       <c r="B40" s="19">
-        <f>Assumptions!B12</f>
+        <f>Assumptions!B13</f>
         <v/>
       </c>
       <c r="C40" t="inlineStr">
@@ -2158,7 +2178,7 @@
         </is>
       </c>
       <c r="B44" s="19">
-        <f>Assumptions!B43</f>
+        <f>Assumptions!B44</f>
         <v/>
       </c>
       <c r="C44" t="inlineStr">
@@ -2174,7 +2194,7 @@
         </is>
       </c>
       <c r="B45" s="23">
-        <f>Assumptions!B45</f>
+        <f>Assumptions!B46</f>
         <v/>
       </c>
       <c r="C45" t="inlineStr">
@@ -2190,7 +2210,7 @@
         </is>
       </c>
       <c r="B46" s="19">
-        <f>(Assumptions!B43/1000)/(Assumptions!B45/100)</f>
+        <f>(Assumptions!B44/1000)/(Assumptions!B46/100)</f>
         <v/>
       </c>
       <c r="C46" t="inlineStr">
@@ -2626,7 +2646,7 @@
           <t>Avg User Lifetime (months)</t>
         </is>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="11" t="n">
         <v>12</v>
       </c>
       <c r="C5" t="inlineStr">
@@ -2665,7 +2685,7 @@
         </is>
       </c>
       <c r="B9" s="19">
-        <f>B5*Assumptions!B22*Assumptions!B15</f>
+        <f>B5*Assumptions!B23*Assumptions!B16</f>
         <v/>
       </c>
       <c r="C9" t="inlineStr">
@@ -2720,7 +2740,7 @@
         </is>
       </c>
       <c r="B14" s="19">
-        <f>(Assumptions!B4)+(Assumptions!B22*Assumptions!B15)</f>
+        <f>(Assumptions!B4)+(Assumptions!B23*Assumptions!B16)</f>
         <v/>
       </c>
       <c r="C14" t="inlineStr">
@@ -2791,7 +2811,7 @@
         </is>
       </c>
       <c r="B20" s="27">
-        <f>Calculations!B33*12*Assumptions!B40*1.15</f>
+        <f>Calculations!B33*12*Assumptions!B41*1.15</f>
         <v/>
       </c>
       <c r="C20" t="inlineStr">
@@ -3526,7 +3546,7 @@
         </is>
       </c>
       <c r="B22" s="19">
-        <f>-Assumptions!B21*Assumptions!B13</f>
+        <f>-Assumptions!B22*Assumptions!B14</f>
         <v/>
       </c>
       <c r="C22" t="inlineStr">
@@ -3542,7 +3562,7 @@
         </is>
       </c>
       <c r="B23" s="19">
-        <f>-Assumptions!B21*Assumptions!B14</f>
+        <f>-Assumptions!B22*Assumptions!B15</f>
         <v/>
       </c>
       <c r="C23" t="inlineStr">
@@ -3603,7 +3623,7 @@
         </is>
       </c>
       <c r="B39" s="33">
-        <f>(12*(Assumptions!B4+Assumptions!B22*Assumptions!B15))/2</f>
+        <f>(12*(Assumptions!B4+Assumptions!B23*Assumptions!B16))/2</f>
         <v/>
       </c>
       <c r="C39" t="inlineStr">
@@ -3624,7 +3644,7 @@
         </is>
       </c>
       <c r="B40" s="34">
-        <f>2/(Assumptions!B4+Assumptions!B22*Assumptions!B15)</f>
+        <f>2/(Assumptions!B4+Assumptions!B23*Assumptions!B16)</f>
         <v/>
       </c>
       <c r="C40" t="inlineStr">
@@ -3685,7 +3705,7 @@
         </is>
       </c>
       <c r="B45" s="27">
-        <f>Calculations!B31*Assumptions!B37/100</f>
+        <f>Calculations!B31*Assumptions!B38/100</f>
         <v/>
       </c>
       <c r="C45" t="inlineStr">
@@ -3717,7 +3737,7 @@
         </is>
       </c>
       <c r="B47" s="27">
-        <f>Calculations!B34*Assumptions!B39/100</f>
+        <f>Calculations!B34*Assumptions!B40/100</f>
         <v/>
       </c>
       <c r="C47" t="inlineStr">
